--- a/Second Iteration Data/data_gathered_part_first_segmentation_4.xlsx
+++ b/Second Iteration Data/data_gathered_part_first_segmentation_4.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Passion\Machine Learning\Projects\Semantic_Web_Parser\Second Iteration Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E182D-E30E-40A8-B89C-AA0469E46FBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="684" yWindow="1176" windowWidth="9600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="32">
   <si>
     <t>tag_h</t>
   </si>
@@ -108,28 +113,40 @@
   </si>
   <si>
     <t>google_esf</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,26 +161,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,20 +486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,30 +541,33 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -542,48 +576,51 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>153.1999969482422</v>
-      </c>
-      <c r="N2" t="n">
-        <v>303.2000122070312</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.005273299717696666</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>153.19999694824219</v>
+      </c>
+      <c r="N2">
+        <v>303.20001220703119</v>
+      </c>
+      <c r="O2">
+        <v>5.2732997176966664E-3</v>
       </c>
       <c r="P2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="n">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>106</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.00211864406779661</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>2.1186440677966102E-3</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -592,48 +629,51 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="n">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.009615384615384616</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -642,48 +682,51 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="n">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>39</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.00273224043715847</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>2.7322404371584699E-3</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -692,48 +735,51 @@
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="n">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>41</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.002604166666666667</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>2.604166666666667E-3</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
@@ -742,48 +788,51 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="n">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -792,48 +841,51 @@
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="n">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -842,48 +894,51 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="n">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.003021148036253776</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>3.021148036253776E-3</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -892,48 +947,51 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="n">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>29</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>258</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2617</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.002949231093322098</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>2.949231093322098E-3</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -942,48 +1000,51 @@
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>157</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>6781.2001953125</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>1266.400024414062</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.9749266921767806</v>
+      <c r="O10">
+        <v>0.97492669217678063</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="n">
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>78</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.0004363001745200698</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>4.3630017452006982E-4</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
@@ -992,46 +1053,48 @@
       <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="n">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.006756756756756757</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
@@ -1040,46 +1103,48 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="n">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>18</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.0005506607929515419</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>5.506607929515419E-4</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
@@ -1088,46 +1153,48 @@
       <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.003472222222222222</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
@@ -1136,46 +1203,48 @@
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.003225806451612903</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>3.2258064516129028E-3</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
@@ -1184,46 +1253,48 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="n">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.1203703703703704</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>0.12037037037037041</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
@@ -1232,48 +1303,51 @@
       <c r="J16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.875</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
@@ -1282,48 +1356,51 @@
       <c r="J17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.1206896551724138</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
@@ -1332,48 +1409,51 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="n">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>70</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
@@ -1382,48 +1462,51 @@
       <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="n">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G20">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
@@ -1432,48 +1515,51 @@
       <c r="J20" t="s">
         <v>15</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1" t="n">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.3125</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
@@ -1482,48 +1568,51 @@
       <c r="J21" t="s">
         <v>15</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1" t="n">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
@@ -1532,48 +1621,51 @@
       <c r="J22" t="s">
         <v>15</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="n">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
@@ -1582,48 +1674,51 @@
       <c r="J23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="n">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.003846153846153846</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G24">
+        <v>3.8461538461538459E-3</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
@@ -1632,48 +1727,51 @@
       <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="n">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>21</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.0006596306068601583</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25">
+        <v>6.5963060686015829E-4</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
@@ -1682,48 +1780,51 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="n">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
@@ -1732,48 +1833,51 @@
       <c r="J26" t="s">
         <v>15</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>6951</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.135257774865053e-07</v>
+      <c r="O26">
+        <v>1.135257774865053E-7</v>
       </c>
       <c r="P26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1" t="n">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
@@ -1782,48 +1886,51 @@
       <c r="J27" t="s">
         <v>15</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="1" t="n">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
@@ -1832,48 +1939,51 @@
       <c r="J28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="1" t="n">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.03821656050955414</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G29">
+        <v>3.8216560509554139E-2</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
@@ -1882,48 +1992,51 @@
       <c r="J29" t="s">
         <v>15</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1" t="n">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
@@ -1932,48 +2045,51 @@
       <c r="J30" t="s">
         <v>15</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1" t="n">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
@@ -1982,48 +2098,51 @@
       <c r="J31" t="s">
         <v>15</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>0</v>
       </c>
       <c r="P31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1" t="n">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
@@ -2032,48 +2151,51 @@
       <c r="J32" t="s">
         <v>15</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>0</v>
       </c>
       <c r="P32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="1" t="n">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
@@ -2082,48 +2204,51 @@
       <c r="J33" t="s">
         <v>15</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>0</v>
       </c>
       <c r="P33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="1" t="n">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>30</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.002173913043478261</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G34">
+        <v>2.1739130434782609E-3</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
@@ -2132,48 +2257,51 @@
       <c r="J34" t="s">
         <v>15</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>0</v>
       </c>
       <c r="P34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="1" t="n">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>21</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G35">
+        <v>1.686340640809443E-3</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
@@ -2182,48 +2310,51 @@
       <c r="J35" t="s">
         <v>15</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>0</v>
       </c>
       <c r="P35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="1" t="n">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
@@ -2232,48 +2363,51 @@
       <c r="J36" t="s">
         <v>15</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="1" t="n">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>18</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.003952569169960474</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37">
+        <v>3.952569169960474E-3</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
@@ -2282,48 +2416,51 @@
       <c r="J37" t="s">
         <v>15</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="1" t="n">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
@@ -2332,48 +2469,51 @@
       <c r="J38" t="s">
         <v>15</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>0</v>
       </c>
       <c r="P38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="1" t="n">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G39">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
@@ -2382,48 +2522,51 @@
       <c r="J39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>0</v>
       </c>
       <c r="P39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="1" t="n">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>18</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.003952569169960474</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G40">
+        <v>3.952569169960474E-3</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
@@ -2432,48 +2575,51 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="1" t="n">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>3</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
@@ -2482,48 +2628,51 @@
       <c r="J41" t="s">
         <v>15</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>0</v>
       </c>
       <c r="P41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="1" t="n">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
@@ -2532,48 +2681,51 @@
       <c r="J42" t="s">
         <v>15</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>0</v>
       </c>
       <c r="P42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="1" t="n">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
@@ -2582,48 +2734,51 @@
       <c r="J43" t="s">
         <v>15</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="1" t="n">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
@@ -2632,26 +2787,30 @@
       <c r="J44" t="s">
         <v>15</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>0</v>
       </c>
       <c r="P44" t="s">
         <v>30</v>
       </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>